--- a/benchmark/results/results_2023-07-25 102441.xlsx
+++ b/benchmark/results/results_2023-07-25 102441.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results_2023-07-25 102441" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>producers_count</t>
   </si>
@@ -40,9 +41,6 @@
   </si>
   <si>
     <t>sd_delta</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -586,9 +584,3317 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9587926509186344E-2"/>
+          <c:y val="0.17821010907657381"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.5201845195330338"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean_delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$D$2:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$D$3,'results_2023-07-25 102441'!$D$5,'results_2023-07-25 102441'!$D$7,'results_2023-07-25 102441'!$D$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>925.40666666666596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423.52666666666602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.0333333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>844.15666666666596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$E$2:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$E$3,'results_2023-07-25 102441'!$E$5,'results_2023-07-25 102441'!$E$7,'results_2023-07-25 102441'!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$F$2:$F$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$F$3,'results_2023-07-25 102441'!$F$5,'results_2023-07-25 102441'!$F$7,'results_2023-07-25 102441'!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sd_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TRUE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$G$2:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$G$3,'results_2023-07-25 102441'!$G$5,'results_2023-07-25 102441'!$G$7,'results_2023-07-25 102441'!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>419.50447909666298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.844024184126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.385034536532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560.706791298491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="320281408"/>
+        <c:axId val="320282976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>producers_count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$3,'results_2023-07-25 102441'!$A$5,'results_2023-07-25 102441'!$A$7,'results_2023-07-25 102441'!$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>msg_count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$B$2:$B$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$B$3,'results_2023-07-25 102441'!$B$5,'results_2023-07-25 102441'!$B$7,'results_2023-07-25 102441'!$B$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>isCPUBound</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$3:$C$3,'results_2023-07-25 102441'!$A$5:$C$5,'results_2023-07-25 102441'!$A$7:$C$7,'results_2023-07-25 102441'!$A$9:$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>TRUE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$C$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$C$3,'results_2023-07-25 102441'!$C$5,'results_2023-07-25 102441'!$C$7,'results_2023-07-25 102441'!$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="320281408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320282976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="320282976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320281408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9587926509186344E-2"/>
+          <c:y val="0.17821010907657381"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.5201845195330338"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean_delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$D$2:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$D$2,'results_2023-07-25 102441'!$D$4,'results_2023-07-25 102441'!$D$6,'results_2023-07-25 102441'!$D$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1420.9566666666601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1674.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1828.96333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$E$2:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$E$2,'results_2023-07-25 102441'!$E$4,'results_2023-07-25 102441'!$E$6,'results_2023-07-25 102441'!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$F$2:$F$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$F$2,'results_2023-07-25 102441'!$F$4,'results_2023-07-25 102441'!$F$6,'results_2023-07-25 102441'!$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'results_2023-07-25 102441'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sd_delta</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'results_2023-07-25 102441'!$G$2:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('results_2023-07-25 102441'!$G$2,'results_2023-07-25 102441'!$G$4,'results_2023-07-25 102441'!$G$6,'results_2023-07-25 102441'!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>152.15243233164799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.19887012305099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.364063214385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.058461633001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="322363480"/>
+        <c:axId val="320774552"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>producers_count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$2,'results_2023-07-25 102441'!$A$4,'results_2023-07-25 102441'!$A$6,'results_2023-07-25 102441'!$A$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>msg_count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$B$2:$B$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$B$2,'results_2023-07-25 102441'!$B$4,'results_2023-07-25 102441'!$B$6,'results_2023-07-25 102441'!$B$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>isCPUBound</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$A$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$A$2:$C$2,'results_2023-07-25 102441'!$A$4:$C$4,'results_2023-07-25 102441'!$A$6:$C$6,'results_2023-07-25 102441'!$A$8:$C$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="4"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>FALSE</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>3</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'results_2023-07-25 102441'!$C$2:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('results_2023-07-25 102441'!$C$2,'results_2023-07-25 102441'!$C$4,'results_2023-07-25 102441'!$C$6,'results_2023-07-25 102441'!$C$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="322363480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320774552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="320774552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322363480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0">
   <autoFilter ref="A1:G15"/>
+  <sortState ref="A2:G15">
+    <sortCondition ref="B1:B15"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="producers_count"/>
     <tableColumn id="2" name="msg_count"/>
@@ -865,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +4188,7 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,55 +4211,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1760.1033333333301</v>
+        <v>1420.9566666666601</v>
       </c>
       <c r="E2">
-        <v>1497</v>
+        <v>1192</v>
       </c>
       <c r="F2">
-        <v>2064</v>
+        <v>1665</v>
       </c>
       <c r="G2">
-        <v>186.91333456359101</v>
+        <v>152.15243233164799</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>615.81333333333305</v>
+        <v>925.40666666666596</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="F3">
-        <v>1204</v>
+        <v>1726</v>
       </c>
       <c r="G3">
-        <v>454.48837620181598</v>
+        <v>419.50447909666298</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -962,21 +4268,21 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1674.04</v>
+        <v>490.15</v>
       </c>
       <c r="E4">
-        <v>1445</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1917</v>
+        <v>947</v>
       </c>
       <c r="G4">
-        <v>152.364063214385</v>
+        <v>338.19887012305099</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -985,65 +4291,65 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1988.0333333333299</v>
+        <v>423.52666666666602</v>
       </c>
       <c r="E5">
-        <v>1802</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>2278</v>
+        <v>749</v>
       </c>
       <c r="G5">
-        <v>137.385034536532</v>
+        <v>264.844024184126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1475.38</v>
+        <v>1674.04</v>
       </c>
       <c r="E6">
-        <v>1203</v>
+        <v>1445</v>
       </c>
       <c r="F6">
-        <v>1724</v>
+        <v>1917</v>
       </c>
       <c r="G6">
-        <v>152.14959941454501</v>
+        <v>152.364063214385</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>992.12</v>
+        <v>1988.0333333333299</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>1802</v>
       </c>
       <c r="F7">
-        <v>1565</v>
+        <v>2278</v>
       </c>
       <c r="G7">
-        <v>672.63917802392996</v>
+        <v>137.385034536532</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1066,7 +4372,7 @@
         <v>261.058461633001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1089,145 +4395,142 @@
         <v>560.706791298491</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1420.9566666666601</v>
+        <v>1673.97</v>
       </c>
       <c r="E10">
-        <v>1192</v>
+        <v>1456</v>
       </c>
       <c r="F10">
-        <v>1665</v>
+        <v>1927</v>
       </c>
       <c r="G10">
-        <v>152.15243233164799</v>
+        <v>147.57865914640701</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>925.40666666666596</v>
+        <v>612.82666666666603</v>
       </c>
       <c r="E11">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>1726</v>
+        <v>1169</v>
       </c>
       <c r="G11">
-        <v>419.50447909666298</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
+        <v>445.20440229362902</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>490.15</v>
+        <v>1760.1033333333301</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>1497</v>
       </c>
       <c r="F12">
-        <v>947</v>
+        <v>2064</v>
       </c>
       <c r="G12">
-        <v>338.19887012305099</v>
+        <v>186.91333456359101</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>423.52666666666602</v>
+        <v>615.81333333333305</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>749</v>
+        <v>1204</v>
       </c>
       <c r="G13">
-        <v>264.844024184126</v>
+        <v>454.48837620181598</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1673.97</v>
+        <v>1475.38</v>
       </c>
       <c r="E14">
-        <v>1456</v>
+        <v>1203</v>
       </c>
       <c r="F14">
-        <v>1927</v>
+        <v>1724</v>
       </c>
       <c r="G14">
-        <v>147.57865914640701</v>
+        <v>152.14959941454501</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>612.82666666666603</v>
+        <v>992.12</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>1169</v>
+        <v>1565</v>
       </c>
       <c r="G15">
-        <v>445.20440229362902</v>
+        <v>672.63917802392996</v>
       </c>
     </row>
   </sheetData>
@@ -1236,4 +4539,19 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>